--- a/documents/S-Nuts implementation.xlsx
+++ b/documents/S-Nuts implementation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Giới thiệu" sheetId="1" r:id="rId1"/>
@@ -3895,7 +3895,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Title, author,</a:t>
+            <a:t>title, author,</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -4190,7 +4190,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Hình</a:t>
+            <a:t>hình</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -4372,7 +4372,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Phần</a:t>
+            <a:t>phần</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -4409,6 +4409,1377 @@
         <a:xfrm flipH="1">
           <a:off x="8715375" y="6398804"/>
           <a:ext cx="1466567" cy="271292"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="190500"/>
+          <a:ext cx="8553450" cy="6842760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>70526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286501" y="5595026"/>
+          <a:ext cx="2228850" cy="1310599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>350254</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>368738</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>26579</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7665454" y="4371975"/>
+          <a:ext cx="2456884" cy="798104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>phần</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> nội dung này đọc từ bảng CompanyInfo, lưu đầy đủ hình ảnh, thông tin công ty, tọa độ Google Maps v.v...</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>26579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359496</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>70526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7400926" y="5170079"/>
+          <a:ext cx="1492970" cy="424947"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="5610225"/>
+          <a:ext cx="5200650" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>399484</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="4181475"/>
+          <a:ext cx="2456884" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>phần</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> gửi mail này làm tương tự như khi khách hàng order xong thì gửi thông tin order cho khách hàng</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390242</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609442" y="4829175"/>
+          <a:ext cx="1895758" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="3171825"/>
+          <a:ext cx="742950" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>37535</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505451" y="1724025"/>
+          <a:ext cx="2456884" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>tọa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> độ của công ty trên bản đồ đọc từ bảng CompanyInfo, phải tính trường hợp công ty có thể có nhiều chi nhánh, nên mỗi chi nhánh sẽ là 1 record trong bảng CompanyInfo</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28293</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="2"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4914900" y="2695575"/>
+          <a:ext cx="1818993" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="8548687" cy="6838950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942974" y="1304925"/>
+          <a:ext cx="1228725" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3838576" y="1257299"/>
+          <a:ext cx="885824" cy="361951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>phần</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> này bỏ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2171699" y="1438275"/>
+          <a:ext cx="1666877" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133474" y="2447925"/>
+          <a:ext cx="5314951" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5724524" y="952501"/>
+          <a:ext cx="2143125" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>phần</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> thông tin của cart được lưu trong jstorage theo dạng chuỗi: product_id1,name1,price1,image1,quantity1:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>product_id2,name2,price2,image2,quantity2:....</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3657603" y="1924051"/>
+          <a:ext cx="3138484" cy="514349"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952501" y="4857749"/>
+          <a:ext cx="3867150" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381002</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819402" y="3981450"/>
+          <a:ext cx="885824" cy="361951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>phần</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> này bỏ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>214314</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2886076" y="4343401"/>
+          <a:ext cx="376238" cy="514348"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4886325" y="4857750"/>
+          <a:ext cx="3867150" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8905875" y="2743200"/>
+          <a:ext cx="2209800" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>phần</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> này chỉnh lại còn nhập địa chỉ mail, số điện thoại, địa chỉ của người dùng, bấm nút Check Out thì qua trang checkout.html</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="2"/>
+          <a:endCxn id="27" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6819900" y="3562350"/>
+          <a:ext cx="3190875" cy="1295400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4729,7 +6100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -4813,7 +6184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -4870,6 +6241,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4882,6 +6254,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
